--- a/Molecular dual-target values dataset.xlsx
+++ b/Molecular dual-target values dataset.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360MoveData\Users\zhuyi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A911CD23-63E7-4BA5-A3F4-C3C0DD5ED72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C766711-A633-406A-900F-0FD10D721C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="576" windowWidth="14520" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="original" sheetId="1" r:id="rId1"/>
-    <sheet name="data augmentation" sheetId="2" r:id="rId2"/>
+    <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Data augmented" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>H H H</t>
   </si>
@@ -133,20 +133,6 @@
     <t>Me NH2 H</t>
   </si>
   <si>
-    <t>Gap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Barrier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Barriers</t>
-  </si>
-  <si>
-    <t>Gap</t>
-  </si>
-  <si>
     <t>Et NH2 CF3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,6 +237,22 @@
   </si>
   <si>
     <t xml:space="preserve">H NH2 Me </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barriers (eV)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap (eV)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Site (4,5,6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*Highlighted data is data augmentation by exchanging two sets using the symmetry of positions 4 and 6.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,16 +278,24 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -300,11 +310,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,9 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -602,11 +613,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1003,26 +1017,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F176F586-2CEB-4AE3-AA3A-236C6F2F36EC}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1032,7 +1049,7 @@
       <c r="B2" s="3">
         <v>18.471384359877675</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>3.3163264400000001</v>
       </c>
     </row>
@@ -1043,7 +1060,7 @@
       <c r="B3" s="3">
         <v>22.484938320017331</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>3.5664047199999995</v>
       </c>
     </row>
@@ -1054,7 +1071,7 @@
       <c r="B4" s="3">
         <v>23.263050719764937</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>3.0221647200000001</v>
       </c>
     </row>
@@ -1065,7 +1082,7 @@
       <c r="B5" s="3">
         <v>18.744351209830555</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>3.30870708</v>
       </c>
     </row>
@@ -1076,7 +1093,7 @@
       <c r="B6" s="3">
         <v>21.057353069840637</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>2.4414606400000003</v>
       </c>
     </row>
@@ -1087,7 +1104,7 @@
       <c r="B7" s="3">
         <v>14.375626589874223</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>2.3698930800000002</v>
       </c>
     </row>
@@ -1098,7 +1115,7 @@
       <c r="B8" s="3">
         <v>19.695028859784532</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>3.0259744000000004</v>
       </c>
     </row>
@@ -1109,7 +1126,7 @@
       <c r="B9" s="3">
         <v>23.967744450054607</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>4.05159468</v>
       </c>
     </row>
@@ -1120,7 +1137,7 @@
       <c r="B10" s="3">
         <v>23.148216389983528</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>3.4480325199999999</v>
       </c>
     </row>
@@ -1131,7 +1148,7 @@
       <c r="B11" s="3">
         <v>25.303085729822136</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>4.0442474399999995</v>
       </c>
     </row>
@@ -1142,7 +1159,7 @@
       <c r="B12" s="3">
         <v>10.694652929893637</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>1.7796647999999995</v>
       </c>
     </row>
@@ -1153,7 +1170,7 @@
       <c r="B13" s="3">
         <v>19.145957609958032</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>2.9446105200000008</v>
       </c>
     </row>
@@ -1164,7 +1181,7 @@
       <c r="B14" s="3">
         <v>8.219753489864269</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>2.1094742399999999</v>
       </c>
     </row>
@@ -1175,7 +1192,7 @@
       <c r="B15" s="3">
         <v>11.82291591004131</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>2.01586496</v>
       </c>
     </row>
@@ -1186,7 +1203,7 @@
       <c r="B16" s="3">
         <v>28.071659849680763</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>4.0091439599999994</v>
       </c>
     </row>
@@ -1197,7 +1214,7 @@
       <c r="B17" s="3">
         <v>23.310113970288171</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>3.3726552799999991</v>
       </c>
     </row>
@@ -1208,7 +1225,7 @@
       <c r="B18" s="3">
         <v>25.301830709967984</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>3.3231294399999998</v>
       </c>
     </row>
@@ -1219,7 +1236,7 @@
       <c r="B19" s="3">
         <v>14.961093420036873</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>2.99767392</v>
       </c>
     </row>
@@ -1230,7 +1247,7 @@
       <c r="B20" s="3">
         <v>18.43561629003932</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>2.0708332</v>
       </c>
     </row>
@@ -1241,7 +1258,7 @@
       <c r="B21" s="3">
         <v>22.783005569906841</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>3.8921323600000006</v>
       </c>
     </row>
@@ -1252,7 +1269,7 @@
       <c r="B22" s="3">
         <v>11.795305469825662</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>3.0512815600000001</v>
       </c>
     </row>
@@ -1263,7 +1280,7 @@
       <c r="B23" s="3">
         <v>21.256273740123145</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>3.4877620399999998</v>
       </c>
     </row>
@@ -1274,7 +1291,7 @@
       <c r="B24" s="3">
         <v>10.298066610038845</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>3.0384919199999998</v>
       </c>
     </row>
@@ -1285,7 +1302,7 @@
       <c r="B25" s="3">
         <v>22.904115000100447</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>3.2202680800000003</v>
       </c>
     </row>
@@ -1296,7 +1313,7 @@
       <c r="B26" s="3">
         <v>23.118095909774215</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>3.83253808</v>
       </c>
     </row>
@@ -1307,7 +1324,7 @@
       <c r="B27" s="3">
         <v>21.019702469935694</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>3.4014999999999995</v>
       </c>
     </row>
@@ -1318,7 +1335,7 @@
       <c r="B28" s="3">
         <v>21.660390179673566</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>3.3337421200000001</v>
       </c>
     </row>
@@ -1329,7 +1346,7 @@
       <c r="B29" s="3">
         <v>14.140310340111641</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>3.0880177600000005</v>
       </c>
     </row>
@@ -1340,7 +1357,7 @@
       <c r="B30" s="3">
         <v>25.016941169688508</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>3.3552396</v>
       </c>
     </row>
@@ -1351,7 +1368,7 @@
       <c r="B31" s="3">
         <v>5.0112948597607918</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>2.5647309999999996</v>
       </c>
     </row>
@@ -1362,7 +1379,7 @@
       <c r="B32" s="3">
         <v>23.64457679994311</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>3.8254629600000003</v>
       </c>
     </row>
@@ -1373,7 +1390,7 @@
       <c r="B33" s="3">
         <v>19.95419048991495</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>3.4039490799999994</v>
       </c>
     </row>
@@ -1384,7 +1401,7 @@
       <c r="B34" s="3">
         <v>16.987950719913325</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>2.9258342399999999</v>
       </c>
     </row>
@@ -1395,316 +1412,321 @@
       <c r="B35" s="3">
         <v>28.232302409845897</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>3.9198886000000002</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="3">
         <v>25.758030480028964</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>3.5002795600000001</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>39</v>
+      <c r="A37" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B37" s="3">
         <v>23.263050719764937</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>3.0221647200000001</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>43</v>
+      <c r="A38" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B38" s="3">
         <v>18.744351209830555</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <v>3.30870708</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>42</v>
+      <c r="A39" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B39" s="3">
         <v>21.057353069840637</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>2.4414606400000003</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>41</v>
+      <c r="A40" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B40" s="3">
         <v>14.375626589874223</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>2.3698930800000002</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>40</v>
+      <c r="A41" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B41" s="3">
         <v>19.695028859784532</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>3.0259744000000004</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>44</v>
+      <c r="A42" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B42" s="3">
         <v>23.967744450054607</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>4.05159468</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>45</v>
+      <c r="A43" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B43" s="3">
         <v>23.148216389983528</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>3.4480325199999999</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>46</v>
+      <c r="A44" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B44" s="3">
         <v>25.303085729822136</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>4.0442474399999995</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>47</v>
+      <c r="A45" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B45" s="3">
         <v>19.145957609958032</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <v>2.9446105200000008</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>48</v>
+      <c r="A46" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B46" s="3">
         <v>8.219753489864269</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="2">
         <v>2.1094742399999999</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>49</v>
+      <c r="A47" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B47" s="3">
         <v>11.82291591004131</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>2.01586496</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>50</v>
+      <c r="A48" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B48" s="3">
         <v>28.071659849680763</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="2">
         <v>4.0091439599999994</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>51</v>
+      <c r="A49" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B49" s="3">
         <v>23.310113970288171</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <v>3.3726552799999991</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>52</v>
+      <c r="A50" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="B50" s="3">
         <v>14.961093420036873</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>2.99767392</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>53</v>
+      <c r="A51" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B51" s="3">
         <v>18.43561629003932</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>2.0708332</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>54</v>
+      <c r="A52" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="B52" s="3">
         <v>22.783005569906841</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2">
         <v>3.8921323600000006</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>55</v>
+      <c r="A53" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="B53" s="3">
         <v>11.795305469825662</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
         <v>3.0512815600000001</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>56</v>
+      <c r="A54" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B54" s="3">
         <v>21.256273740123145</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="2">
         <v>3.4877620399999998</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>57</v>
+      <c r="A55" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B55" s="3">
         <v>23.118095909774215</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="2">
         <v>3.83253808</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>58</v>
+      <c r="A56" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B56" s="3">
         <v>21.019702469935694</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="2">
         <v>3.4014999999999995</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>59</v>
+      <c r="A57" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B57" s="3">
         <v>25.016941169688508</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2">
         <v>3.3552396</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>60</v>
+      <c r="A58" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B58" s="3">
         <v>5.0112948597607918</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="2">
         <v>2.5647309999999996</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>61</v>
+      <c r="A59" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B59" s="3">
         <v>23.64457679994311</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="2">
         <v>3.8254629600000003</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>62</v>
+      <c r="A60" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B60" s="3">
         <v>19.95419048991495</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="2">
         <v>3.4039490799999994</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>63</v>
+      <c r="A61" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B61" s="3">
         <v>16.987950719913325</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="2">
         <v>2.9258342399999999</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>64</v>
+      <c r="A62" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B62" s="3">
         <v>28.232302409845897</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="2">
         <v>3.9198886000000002</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>65</v>
+      <c r="A63" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B63" s="3">
         <v>25.758030480028964</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="2">
         <v>3.5002795600000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
